--- a/outcome/appendix/data/PHSMs/Brucellosis.xlsx
+++ b/outcome/appendix/data/PHSMs/Brucellosis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,19 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
     <t xml:space="preserve">布病</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease</t>
   </si>
 </sst>
 </file>
@@ -403,6 +415,12 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -416,10 +434,16 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>2445</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-26.0087485722161</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -434,10 +458,16 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>933</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1929.90723573949</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -452,10 +482,16 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>3508</v>
+      </c>
+      <c r="I4" t="n">
+        <v>19.6751212739241</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -470,10 +506,16 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>5360</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-856.305950010643</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -488,10 +530,16 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
         <v>5264</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-537.729874799696</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -506,10 +554,16 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>6193</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-1203.93617579683</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -524,10 +578,16 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
         <v>4972</v>
+      </c>
+      <c r="I8" t="n">
+        <v>87.1122983196738</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -542,10 +602,16 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
         <v>6437</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-1808.18428678758</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -560,10 +626,16 @@
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
         <v>4492</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-796.303677106054</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +650,16 @@
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>3206</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-730.703242600004</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +674,16 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>3611</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-1288.80918245803</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -614,10 +698,16 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>3694</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-1183.46843794817</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -632,10 +722,16 @@
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
         <v>3175</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-953.663566037582</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -650,10 +746,16 @@
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
         <v>3425</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-964.393565366271</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -668,10 +770,16 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
         <v>7220</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-4392.62589277616</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -686,10 +794,16 @@
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
         <v>7848</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-3938.54932489477</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -704,10 +818,16 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
         <v>8096</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-3701.52968211303</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -722,10 +842,16 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>9670</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-4952.09342138692</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -740,10 +866,16 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
         <v>9222</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-4353.7359139583</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -758,10 +890,16 @@
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>6867</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-2525.49247410214</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -776,10 +914,16 @@
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
         <v>5932</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-2260.69100798903</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -794,10 +938,16 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>3622</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-1214.97535543127</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -812,10 +962,16 @@
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>3649</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-1668.83505529049</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -830,10 +986,16 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
         <v>4919</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-2755.61746027626</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -848,10 +1010,16 @@
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
         <v>4396</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-2435.80126744773</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -866,10 +1034,16 @@
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
         <v>4689</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-2589.5704029267</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -884,10 +1058,16 @@
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
         <v>6656</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-4253.72464740143</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -902,10 +1082,16 @@
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
         <v>7124</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-3606.55555892554</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -920,10 +1106,16 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
         <v>8824</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-4516.53078343133</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -938,10 +1130,16 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31" t="n">
         <v>9943</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-5156.71984723978</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -956,10 +1154,16 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H32" t="n">
         <v>9683</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-4627.60172599691</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -974,10 +1178,16 @@
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
         <v>7887</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-3312.82539564196</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -992,10 +1202,16 @@
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
         <v>5311</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-1513.6137083621</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1010,10 +1226,16 @@
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" t="n">
         <v>2535</v>
+      </c>
+      <c r="I35" t="n">
+        <v>7.71474033915774</v>
+      </c>
+      <c r="J35" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -1028,10 +1250,16 @@
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
         <v>2569</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-692.646156708133</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/data/PHSMs/Brucellosis.xlsx
+++ b/outcome/appendix/data/PHSMs/Brucellosis.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2418.99125142778</v>
+        <v>2418.99125320003</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -440,7 +440,7 @@
         <v>2445</v>
       </c>
       <c r="I2" t="n">
-        <v>-26.0087485722161</v>
+        <v>-26.0087467999674</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -451,7 +451,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2862.90723573949</v>
+        <v>2862.90720368235</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -464,7 +464,7 @@
         <v>933</v>
       </c>
       <c r="I3" t="n">
-        <v>1929.90723573949</v>
+        <v>1929.90720368235</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -475,7 +475,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3527.67512127392</v>
+        <v>3527.67510920989</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -488,7 +488,7 @@
         <v>3508</v>
       </c>
       <c r="I4" t="n">
-        <v>19.6751212739241</v>
+        <v>19.6751092098903</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -499,7 +499,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>4503.69404998936</v>
+        <v>4503.69396939878</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -512,7 +512,7 @@
         <v>5360</v>
       </c>
       <c r="I5" t="n">
-        <v>-856.305950010643</v>
+        <v>-856.306030601223</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>4726.2701252003</v>
+        <v>4726.26996276011</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -536,7 +536,7 @@
         <v>5264</v>
       </c>
       <c r="I6" t="n">
-        <v>-537.729874799696</v>
+        <v>-537.730037239889</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -547,7 +547,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>4989.06382420317</v>
+        <v>4989.06346554935</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -560,7 +560,7 @@
         <v>6193</v>
       </c>
       <c r="I7" t="n">
-        <v>-1203.93617579683</v>
+        <v>-1203.93653445065</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -571,7 +571,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>5059.11229831967</v>
+        <v>5059.1119483696</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -584,7 +584,7 @@
         <v>4972</v>
       </c>
       <c r="I8" t="n">
-        <v>87.1122983196738</v>
+        <v>87.111948369602</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -595,7 +595,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>4628.81571321242</v>
+        <v>4628.81531151646</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -608,7 +608,7 @@
         <v>6437</v>
       </c>
       <c r="I9" t="n">
-        <v>-1808.18428678758</v>
+        <v>-1808.18468848354</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3695.69632289395</v>
+        <v>3695.6960540512</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -632,7 +632,7 @@
         <v>4492</v>
       </c>
       <c r="I10" t="n">
-        <v>-796.303677106054</v>
+        <v>-796.303945948802</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -643,7 +643,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2475.2967574</v>
+        <v>2475.29662725756</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -656,7 +656,7 @@
         <v>3206</v>
       </c>
       <c r="I11" t="n">
-        <v>-730.703242600004</v>
+        <v>-730.703372742436</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -667,7 +667,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2322.19081754197</v>
+        <v>2322.19069360533</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -680,7 +680,7 @@
         <v>3611</v>
       </c>
       <c r="I12" t="n">
-        <v>-1288.80918245803</v>
+        <v>-1288.80930639467</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -691,7 +691,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2510.53156205183</v>
+        <v>2510.53145409476</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -704,7 +704,7 @@
         <v>3694</v>
       </c>
       <c r="I13" t="n">
-        <v>-1183.46843794817</v>
+        <v>-1183.46854590524</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2221.33643396242</v>
+        <v>2221.33626049189</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -728,7 +728,7 @@
         <v>3175</v>
       </c>
       <c r="I14" t="n">
-        <v>-953.663566037582</v>
+        <v>-953.663739508112</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -739,7 +739,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2460.60643463373</v>
+        <v>2460.60626289217</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -752,7 +752,7 @@
         <v>3425</v>
       </c>
       <c r="I15" t="n">
-        <v>-964.393565366271</v>
+        <v>-964.393737107827</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -763,7 +763,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>2827.37410722383</v>
+        <v>2827.37400896391</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -776,7 +776,7 @@
         <v>7220</v>
       </c>
       <c r="I16" t="n">
-        <v>-4392.62589277616</v>
+        <v>-4392.62599103609</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -787,7 +787,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>3909.45067510523</v>
+        <v>3909.45052097077</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -800,7 +800,7 @@
         <v>7848</v>
       </c>
       <c r="I17" t="n">
-        <v>-3938.54932489477</v>
+        <v>-3938.54947902923</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -811,7 +811,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>4394.47031788697</v>
+        <v>4394.47013568893</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -824,7 +824,7 @@
         <v>8096</v>
       </c>
       <c r="I18" t="n">
-        <v>-3701.52968211303</v>
+        <v>-3701.52986431107</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -835,7 +835,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>4717.90657861308</v>
+        <v>4717.90622015022</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -848,7 +848,7 @@
         <v>9670</v>
       </c>
       <c r="I19" t="n">
-        <v>-4952.09342138692</v>
+        <v>-4952.09377984978</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -859,7 +859,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>4868.2640860417</v>
+        <v>4868.26371352892</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -872,7 +872,7 @@
         <v>9222</v>
       </c>
       <c r="I20" t="n">
-        <v>-4353.7359139583</v>
+        <v>-4353.73628647108</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -883,7 +883,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>4341.50752589786</v>
+        <v>4341.50704720355</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -896,7 +896,7 @@
         <v>6867</v>
       </c>
       <c r="I21" t="n">
-        <v>-2525.49247410214</v>
+        <v>-2525.49295279645</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>3671.30899201097</v>
+        <v>3671.30858496162</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -920,7 +920,7 @@
         <v>5932</v>
       </c>
       <c r="I22" t="n">
-        <v>-2260.69100798903</v>
+        <v>-2260.69141503838</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -931,7 +931,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>2407.02464456873</v>
+        <v>2407.02426950823</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -944,7 +944,7 @@
         <v>3622</v>
       </c>
       <c r="I23" t="n">
-        <v>-1214.97535543127</v>
+        <v>-1214.97573049177</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -955,7 +955,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1980.16494470951</v>
+        <v>1980.16463953068</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -968,7 +968,7 @@
         <v>3649</v>
       </c>
       <c r="I24" t="n">
-        <v>-1668.83505529049</v>
+        <v>-1668.83536046932</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -979,7 +979,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2163.38253972374</v>
+        <v>2163.38230021898</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -992,7 +992,7 @@
         <v>4919</v>
       </c>
       <c r="I25" t="n">
-        <v>-2755.61746027626</v>
+        <v>-2755.61769978102</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1960.19873255227</v>
+        <v>1960.19839058446</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -1016,7 +1016,7 @@
         <v>4396</v>
       </c>
       <c r="I26" t="n">
-        <v>-2435.80126744773</v>
+        <v>-2435.80160941554</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1027,7 +1027,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2099.4295970733</v>
+        <v>2099.42953911985</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -1040,7 +1040,7 @@
         <v>4689</v>
       </c>
       <c r="I27" t="n">
-        <v>-2589.5704029267</v>
+        <v>-2589.57046088015</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1051,7 +1051,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>2402.27535259857</v>
+        <v>2402.27513080925</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -1064,7 +1064,7 @@
         <v>6656</v>
       </c>
       <c r="I28" t="n">
-        <v>-4253.72464740143</v>
+        <v>-4253.72486919075</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1075,7 +1075,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>3517.44444107446</v>
+        <v>3517.44427447235</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -1088,7 +1088,7 @@
         <v>7124</v>
       </c>
       <c r="I29" t="n">
-        <v>-3606.55555892554</v>
+        <v>-3606.55572552765</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1099,7 +1099,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>4307.46921656867</v>
+        <v>4307.46896285533</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -1112,7 +1112,7 @@
         <v>8824</v>
       </c>
       <c r="I30" t="n">
-        <v>-4516.53078343133</v>
+        <v>-4516.53103714467</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1123,7 +1123,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>4786.28015276022</v>
+        <v>4786.27980084338</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -1136,7 +1136,7 @@
         <v>9943</v>
       </c>
       <c r="I31" t="n">
-        <v>-5156.71984723978</v>
+        <v>-5156.72019915662</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1147,7 +1147,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>5055.39827400309</v>
+        <v>5055.39768625691</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -1160,7 +1160,7 @@
         <v>9683</v>
       </c>
       <c r="I32" t="n">
-        <v>-4627.60172599691</v>
+        <v>-4627.60231374309</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1171,7 +1171,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>4574.17460435804</v>
+        <v>4574.17360838349</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -1184,7 +1184,7 @@
         <v>7887</v>
       </c>
       <c r="I33" t="n">
-        <v>-3312.82539564196</v>
+        <v>-3312.82639161651</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1195,7 +1195,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>3797.3862916379</v>
+        <v>3797.3855212541</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1208,7 +1208,7 @@
         <v>5311</v>
       </c>
       <c r="I34" t="n">
-        <v>-1513.6137083621</v>
+        <v>-1513.6144787459</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1219,7 +1219,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>2542.71474033916</v>
+        <v>2542.71394792223</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1232,7 +1232,7 @@
         <v>2535</v>
       </c>
       <c r="I35" t="n">
-        <v>7.71474033915774</v>
+        <v>7.71394792223236</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1243,7 +1243,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1876.35384329187</v>
+        <v>1876.353243198</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1256,7 +1256,7 @@
         <v>2569</v>
       </c>
       <c r="I36" t="n">
-        <v>-692.646156708133</v>
+        <v>-692.646756801997</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>

--- a/outcome/appendix/data/PHSMs/Brucellosis.xlsx
+++ b/outcome/appendix/data/PHSMs/Brucellosis.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2418.99125320003</v>
+        <v>2418.99125142778</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -440,7 +440,7 @@
         <v>2445</v>
       </c>
       <c r="I2" t="n">
-        <v>-26.0087467999674</v>
+        <v>-26.0087485722161</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -451,7 +451,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2862.90720368235</v>
+        <v>2862.90723573949</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -464,7 +464,7 @@
         <v>933</v>
       </c>
       <c r="I3" t="n">
-        <v>1929.90720368235</v>
+        <v>1929.90723573949</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -475,7 +475,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3527.67510920989</v>
+        <v>3527.67512127392</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -488,7 +488,7 @@
         <v>3508</v>
       </c>
       <c r="I4" t="n">
-        <v>19.6751092098903</v>
+        <v>19.6751212739241</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -499,7 +499,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>4503.69396939878</v>
+        <v>4503.69404998936</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -512,7 +512,7 @@
         <v>5360</v>
       </c>
       <c r="I5" t="n">
-        <v>-856.306030601223</v>
+        <v>-856.305950010643</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>4726.26996276011</v>
+        <v>4726.2701252003</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -536,7 +536,7 @@
         <v>5264</v>
       </c>
       <c r="I6" t="n">
-        <v>-537.730037239889</v>
+        <v>-537.729874799696</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -547,7 +547,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>4989.06346554935</v>
+        <v>4989.06382420317</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -560,7 +560,7 @@
         <v>6193</v>
       </c>
       <c r="I7" t="n">
-        <v>-1203.93653445065</v>
+        <v>-1203.93617579683</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -571,7 +571,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>5059.1119483696</v>
+        <v>5059.11229831967</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -584,7 +584,7 @@
         <v>4972</v>
       </c>
       <c r="I8" t="n">
-        <v>87.111948369602</v>
+        <v>87.1122983196738</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -595,7 +595,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>4628.81531151646</v>
+        <v>4628.81571321242</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -608,7 +608,7 @@
         <v>6437</v>
       </c>
       <c r="I9" t="n">
-        <v>-1808.18468848354</v>
+        <v>-1808.18428678758</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3695.6960540512</v>
+        <v>3695.69632289395</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -632,7 +632,7 @@
         <v>4492</v>
       </c>
       <c r="I10" t="n">
-        <v>-796.303945948802</v>
+        <v>-796.303677106054</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -643,7 +643,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2475.29662725756</v>
+        <v>2475.2967574</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -656,7 +656,7 @@
         <v>3206</v>
       </c>
       <c r="I11" t="n">
-        <v>-730.703372742436</v>
+        <v>-730.703242600004</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -667,7 +667,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2322.19069360533</v>
+        <v>2322.19081754197</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -680,7 +680,7 @@
         <v>3611</v>
       </c>
       <c r="I12" t="n">
-        <v>-1288.80930639467</v>
+        <v>-1288.80918245803</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -691,7 +691,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2510.53145409476</v>
+        <v>2510.53156205183</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -704,7 +704,7 @@
         <v>3694</v>
       </c>
       <c r="I13" t="n">
-        <v>-1183.46854590524</v>
+        <v>-1183.46843794817</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2221.33626049189</v>
+        <v>2221.33643396242</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -728,7 +728,7 @@
         <v>3175</v>
       </c>
       <c r="I14" t="n">
-        <v>-953.663739508112</v>
+        <v>-953.663566037582</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -739,7 +739,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2460.60626289217</v>
+        <v>2460.60643463373</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -752,7 +752,7 @@
         <v>3425</v>
       </c>
       <c r="I15" t="n">
-        <v>-964.393737107827</v>
+        <v>-964.393565366271</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -763,7 +763,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>2827.37400896391</v>
+        <v>2827.37410722383</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -776,7 +776,7 @@
         <v>7220</v>
       </c>
       <c r="I16" t="n">
-        <v>-4392.62599103609</v>
+        <v>-4392.62589277616</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -787,7 +787,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>3909.45052097077</v>
+        <v>3909.45067510523</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -800,7 +800,7 @@
         <v>7848</v>
       </c>
       <c r="I17" t="n">
-        <v>-3938.54947902923</v>
+        <v>-3938.54932489477</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -811,7 +811,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>4394.47013568893</v>
+        <v>4394.47031788697</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -824,7 +824,7 @@
         <v>8096</v>
       </c>
       <c r="I18" t="n">
-        <v>-3701.52986431107</v>
+        <v>-3701.52968211303</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -835,7 +835,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>4717.90622015022</v>
+        <v>4717.90657861308</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -848,7 +848,7 @@
         <v>9670</v>
       </c>
       <c r="I19" t="n">
-        <v>-4952.09377984978</v>
+        <v>-4952.09342138692</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -859,7 +859,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>4868.26371352892</v>
+        <v>4868.2640860417</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -872,7 +872,7 @@
         <v>9222</v>
       </c>
       <c r="I20" t="n">
-        <v>-4353.73628647108</v>
+        <v>-4353.7359139583</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -883,7 +883,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>4341.50704720355</v>
+        <v>4341.50752589786</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -896,7 +896,7 @@
         <v>6867</v>
       </c>
       <c r="I21" t="n">
-        <v>-2525.49295279645</v>
+        <v>-2525.49247410214</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>3671.30858496162</v>
+        <v>3671.30899201097</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -920,7 +920,7 @@
         <v>5932</v>
       </c>
       <c r="I22" t="n">
-        <v>-2260.69141503838</v>
+        <v>-2260.69100798903</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -931,7 +931,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>2407.02426950823</v>
+        <v>2407.02464456873</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -944,7 +944,7 @@
         <v>3622</v>
       </c>
       <c r="I23" t="n">
-        <v>-1214.97573049177</v>
+        <v>-1214.97535543127</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -955,7 +955,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1980.16463953068</v>
+        <v>1980.16494470951</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -968,7 +968,7 @@
         <v>3649</v>
       </c>
       <c r="I24" t="n">
-        <v>-1668.83536046932</v>
+        <v>-1668.83505529049</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -979,7 +979,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2163.38230021898</v>
+        <v>2163.38253972374</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -992,7 +992,7 @@
         <v>4919</v>
       </c>
       <c r="I25" t="n">
-        <v>-2755.61769978102</v>
+        <v>-2755.61746027626</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1960.19839058446</v>
+        <v>1960.19873255227</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -1016,7 +1016,7 @@
         <v>4396</v>
       </c>
       <c r="I26" t="n">
-        <v>-2435.80160941554</v>
+        <v>-2435.80126744773</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1027,7 +1027,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2099.42953911985</v>
+        <v>2099.4295970733</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -1040,7 +1040,7 @@
         <v>4689</v>
       </c>
       <c r="I27" t="n">
-        <v>-2589.57046088015</v>
+        <v>-2589.5704029267</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1051,7 +1051,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>2402.27513080925</v>
+        <v>2402.27535259857</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -1064,7 +1064,7 @@
         <v>6656</v>
       </c>
       <c r="I28" t="n">
-        <v>-4253.72486919075</v>
+        <v>-4253.72464740143</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1075,7 +1075,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>3517.44427447235</v>
+        <v>3517.44444107446</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -1088,7 +1088,7 @@
         <v>7124</v>
       </c>
       <c r="I29" t="n">
-        <v>-3606.55572552765</v>
+        <v>-3606.55555892554</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1099,7 +1099,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>4307.46896285533</v>
+        <v>4307.46921656867</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -1112,7 +1112,7 @@
         <v>8824</v>
       </c>
       <c r="I30" t="n">
-        <v>-4516.53103714467</v>
+        <v>-4516.53078343133</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1123,7 +1123,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>4786.27980084338</v>
+        <v>4786.28015276022</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -1136,7 +1136,7 @@
         <v>9943</v>
       </c>
       <c r="I31" t="n">
-        <v>-5156.72019915662</v>
+        <v>-5156.71984723978</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1147,7 +1147,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>5055.39768625691</v>
+        <v>5055.39827400309</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -1160,7 +1160,7 @@
         <v>9683</v>
       </c>
       <c r="I32" t="n">
-        <v>-4627.60231374309</v>
+        <v>-4627.60172599691</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1171,7 +1171,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>4574.17360838349</v>
+        <v>4574.17460435804</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -1184,7 +1184,7 @@
         <v>7887</v>
       </c>
       <c r="I33" t="n">
-        <v>-3312.82639161651</v>
+        <v>-3312.82539564196</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1195,7 +1195,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>3797.3855212541</v>
+        <v>3797.3862916379</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1208,7 +1208,7 @@
         <v>5311</v>
       </c>
       <c r="I34" t="n">
-        <v>-1513.6144787459</v>
+        <v>-1513.6137083621</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1219,7 +1219,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>2542.71394792223</v>
+        <v>2542.71474033916</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1232,7 +1232,7 @@
         <v>2535</v>
       </c>
       <c r="I35" t="n">
-        <v>7.71394792223236</v>
+        <v>7.71474033915774</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1243,7 +1243,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1876.353243198</v>
+        <v>1876.35384329187</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1256,7 +1256,7 @@
         <v>2569</v>
       </c>
       <c r="I36" t="n">
-        <v>-692.646756801997</v>
+        <v>-692.646156708133</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
